--- a/Data/Summary Report/Summary_Template_Vouchers.xlsx
+++ b/Data/Summary Report/Summary_Template_Vouchers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55648C\Documents\SOK_GIT\P0001_090_PayCyleQueries_Performer\Data\Summary Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8420C336-C5B3-439B-83C4-5D5169A394C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F03D6BF-A19F-4E15-BF80-2F6EF89C34FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,7 +179,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -188,6 +187,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,27 +473,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="113.5703125" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -509,55 +514,505 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data/Summary Report/Summary_Template_Vouchers.xlsx
+++ b/Data/Summary Report/Summary_Template_Vouchers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55648C\Documents\SOK_GIT\P0001_090_PayCyleQueries_Performer\Data\Summary Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F03D6BF-A19F-4E15-BF80-2F6EF89C34FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D511E-D317-4D4B-A6DC-3889E2013648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,6 +179,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -187,11 +191,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,26 +474,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="61.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="113.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="113.5703125" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -514,505 +513,595 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="8"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="8"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="8"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="8"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
-      <c r="D95" s="8"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
-      <c r="D96" s="8"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
-      <c r="D97" s="8"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
-      <c r="D98" s="8"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
-      <c r="D99" s="8"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="8"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
-      <c r="D101" s="8"/>
+      <c r="D101" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data/Summary Report/Summary_Template_Vouchers.xlsx
+++ b/Data/Summary Report/Summary_Template_Vouchers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55648C\Documents\SOK_GIT\P0001_090_PayCyleQueries_Performer\Data\Summary Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D511E-D317-4D4B-A6DC-3889E2013648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EC6F1E-6D45-4FA0-895A-85EB8B3D8974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +191,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,13 +484,13 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="61.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="113.5703125" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
@@ -499,7 +508,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -511,595 +520,595 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="11"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="11"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="11"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="11"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
+      <c r="B89" s="11"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="11"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
+      <c r="B92" s="11"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
+      <c r="B97" s="11"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
+      <c r="B98" s="11"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
+      <c r="B100" s="11"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="11"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
     </row>
